--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -92,15 +92,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -275,28 +278,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50.981564316666663</c:v>
+                  <c:v>46.747931700000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.546690349999999</c:v>
+                  <c:v>23.239037699999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.889579083333333</c:v>
+                  <c:v>15.829630683333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.874954216666668</c:v>
+                  <c:v>11.934359433333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4538028166666663</c:v>
+                  <c:v>9.4403410500000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3952902666666667</c:v>
+                  <c:v>8.0460165666666672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3133184</c:v>
+                  <c:v>6.8042404666666672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8404475833333334</c:v>
+                  <c:v>6.173450233333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,28 +373,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50.981564316666663</c:v>
+                  <c:v>46.747931700000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.490782158333332</c:v>
+                  <c:v>23.373965850000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.993854772222221</c:v>
+                  <c:v>15.582643900000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.745391079166666</c:v>
+                  <c:v>11.686982925000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.196312863333333</c:v>
+                  <c:v>9.3495863400000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4969273861111105</c:v>
+                  <c:v>7.7913219500000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.2830806166666662</c:v>
+                  <c:v>6.6782759571428576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3726955395833329</c:v>
+                  <c:v>5.8434914625000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,11 +410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-419157216"/>
-        <c:axId val="-419156672"/>
+        <c:axId val="1344580000"/>
+        <c:axId val="1344591424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-419157216"/>
+        <c:axId val="1344580000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419156672"/>
+        <c:crossAx val="1344591424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -462,7 +465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-419156672"/>
+        <c:axId val="1344591424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-419157216"/>
+        <c:crossAx val="1344580000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1450,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,10 +1477,10 @@
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1485,152 +1488,152 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <v>3058.8938589999998</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="3">
+        <v>2804.8759020000002</v>
+      </c>
+      <c r="D19" s="2">
         <f>C19/60</f>
-        <v>50.981564316666663</v>
-      </c>
-      <c r="E19" s="3">
+        <v>46.747931700000002</v>
+      </c>
+      <c r="E19" s="2">
         <f>D19</f>
-        <v>50.981564316666663</v>
-      </c>
-      <c r="F19" s="2" t="s">
+        <v>46.747931700000002</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <v>1412.8014209999999</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="3">
+        <v>1394.3422619999999</v>
+      </c>
+      <c r="D20" s="2">
         <f t="shared" ref="D20:D27" si="0">C20/60</f>
-        <v>23.546690349999999</v>
-      </c>
-      <c r="E20" s="3">
+        <v>23.239037699999997</v>
+      </c>
+      <c r="E20" s="2">
         <f>(E19*B19)/B20</f>
-        <v>25.490782158333332</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>23.373965850000001</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="1">
-        <v>953.37474499999996</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="3">
+        <v>949.77784099999997</v>
+      </c>
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>15.889579083333333</v>
-      </c>
-      <c r="E21" s="3">
+        <v>15.829630683333333</v>
+      </c>
+      <c r="E21" s="2">
         <f>(E20*B20)/B21</f>
-        <v>16.993854772222221</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>15.582643900000001</v>
+      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C22" s="1">
-        <v>712.497253</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="3">
+        <v>716.06156599999997</v>
+      </c>
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>11.874954216666668</v>
-      </c>
-      <c r="E22" s="3">
+        <v>11.934359433333332</v>
+      </c>
+      <c r="E22" s="2">
         <f>(E21*B21)/B22</f>
-        <v>12.745391079166666</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>11.686982925000001</v>
+      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C23" s="1">
-        <v>387.22816899999998</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="3">
+        <v>566.42046300000004</v>
+      </c>
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>6.4538028166666663</v>
-      </c>
-      <c r="E23" s="3">
+        <v>9.4403410500000007</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" ref="E23:E26" si="1">(E22*B22)/B23</f>
-        <v>10.196312863333333</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>9.3495863400000001</v>
+      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>6</v>
       </c>
-      <c r="C24" s="1">
-        <v>323.71741600000001</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="3">
+        <v>482.76099399999998</v>
+      </c>
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>5.3952902666666667</v>
-      </c>
-      <c r="E24" s="3">
+        <v>8.0460165666666672</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>8.4969273861111105</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>7.7913219500000004</v>
+      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
-        <v>258.799104</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="3">
+        <v>408.25442800000002</v>
+      </c>
+      <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>4.3133184</v>
-      </c>
-      <c r="E25" s="3">
+        <v>6.8042404666666672</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>7.2830806166666662</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>6.6782759571428576</v>
+      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>8</v>
       </c>
-      <c r="C26" s="1">
-        <v>230.42685499999999</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="3">
+        <v>370.407014</v>
+      </c>
+      <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>3.8404475833333334</v>
-      </c>
-      <c r="E26" s="3">
+        <v>6.173450233333333</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>6.3726955395833329</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>5.8434914625000003</v>
+      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1642,11 +1645,11 @@
       <c r="C27" s="1">
         <v>43165.803817</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>719.43006361666664</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
